--- a/Tables/PatientPassport.xlsx
+++ b/Tables/PatientPassport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4836841B-3825-439F-A814-A34E0C7DADE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4570F69-4451-46C7-9485-73EDFC069D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Серия</t>
   </si>
   <si>
     <t>Номер</t>
+  </si>
+  <si>
+    <t>Id пациента</t>
   </si>
 </sst>
 </file>
@@ -354,25 +354,25 @@
   <dimension ref="A1:C751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">

--- a/Tables/PatientPassport.xlsx
+++ b/Tables/PatientPassport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4570F69-4451-46C7-9485-73EDFC069D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA16C18-B34D-4FC3-8E5A-CC1A1358666F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="15730" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>Номер</t>
   </si>
   <si>
-    <t>Id пациента</t>
+    <t>Пациент</t>
   </si>
 </sst>
 </file>
@@ -354,12 +354,12 @@
   <dimension ref="A1:C751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
